--- a/data/token/USDCOLD.xlsx
+++ b/data/token/USDCOLD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,72 @@
   </si>
   <si>
     <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-09-29</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
   </si>
 </sst>
 </file>
@@ -482,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,6 +737,116 @@
         <v>36</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
